--- a/Topic Modelling Results - Abstracts.xlsx
+++ b/Topic Modelling Results - Abstracts.xlsx
@@ -4,14 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="k=5" sheetId="1" r:id="rId1"/>
+    <sheet name="k=10" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LDAGibbs_10_DocsToTopics" localSheetId="1">'k=10'!$A$1:$B$210</definedName>
+    <definedName name="LDAGibbs_10_TopicProbabilities" localSheetId="1">'k=10'!$C$1:$L$210</definedName>
+    <definedName name="LDAGibbs_10_TopicsToTerms" localSheetId="1">'k=10'!$N$1:$W$7</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,8 +27,55 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="LDAGibbs 10 DocsToTopics" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="C:\Users\jj.egb\Dropbox (CBS CIU)\Collective Intelligence Unit\7. project 2019 - 2022 (PU)\B_Research\Literature review\Statistics\LDAGibbs 10 DocsToTopics.csv" decimal="," thousands="." comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="LDAGibbs 10 TopicProbabilities" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\jj.egb\Dropbox (CBS CIU)\Collective Intelligence Unit\7. project 2019 - 2022 (PU)\B_Research\Literature review\Statistics\LDAGibbs 10 TopicProbabilities.csv" decimal="," thousands="." comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="LDAGibbs 10 TopicsToTerms" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\jj.egb\Dropbox (CBS CIU)\Collective Intelligence Unit\7. project 2019 - 2022 (PU)\B_Research\Literature review\Statistics\LDAGibbs 10 TopicsToTerms.csv" decimal="," thousands="." comma="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="248">
   <si>
     <t>V1</t>
   </si>
@@ -670,6 +723,102 @@
   </si>
   <si>
     <t>V12</t>
+  </si>
+  <si>
+    <t>Topic 6</t>
+  </si>
+  <si>
+    <t>Topic 7</t>
+  </si>
+  <si>
+    <t>Topic 8</t>
+  </si>
+  <si>
+    <t>Topic 9</t>
+  </si>
+  <si>
+    <t>Topic 10</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>deliber</t>
+  </si>
+  <si>
+    <t>manag</t>
+  </si>
+  <si>
+    <t>motiv</t>
+  </si>
+  <si>
+    <t>communic</t>
+  </si>
+  <si>
+    <t>inform</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>initi</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>scienc</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>delib</t>
+  </si>
+  <si>
+    <t>provid</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>involv</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>differ</t>
+  </si>
+  <si>
+    <t>studi</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>V10</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2651,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K16:M33" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2520,6 +2669,18 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LDAGibbs 10 TopicProbabilities" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LDAGibbs 10 TopicsToTerms" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LDAGibbs 10 DocsToTopics" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2803,7 +2964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -2841,7 +3002,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7212,4 +7373,7000 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q177"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" customWidth="1"/>
+    <col min="17" max="18" width="7.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.2467532467532499E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.5454545454545497E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.8961038961039002E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.55844155844155796</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.5454545454545497E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.1948051948052E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5.8441558441558399E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.5454545454545497E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3.2467532467532499E-2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.45945945945946E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.12837837837837801</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.18918918918918901</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.162162162162162</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.08108108108108E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.7567567567567599E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8.1081081081081099E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6.08108108108108E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.7567567567567599E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8.7837837837837801E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.25806451612903E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.8709677419354802E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.6451612903225798E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.8709677419354802E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.4516129032258104E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.104838709677419</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8.8709677419354802E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6.4516129032258104E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.16935483870967699</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.20161290322580599</v>
+      </c>
+      <c r="N4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.6298342541436503E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.27071823204419898</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.13259668508287301</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9.3922651933701695E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.6298342541436503E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.110497237569061</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7.7348066298342497E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6.0773480662983402E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.6298342541436503E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.5248618784530398E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O5" t="s">
+        <v>227</v>
+      </c>
+      <c r="P5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.10958904109589</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.10958904109589</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7.5342465753424695E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.28082191780821902</v>
+      </c>
+      <c r="N6" t="s">
+        <v>231</v>
+      </c>
+      <c r="O6" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.7912087912087905E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.13186813186813201</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.5934065934065894E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.10989010989011</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6.5934065934065894E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.13186813186813201</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.13186813186813201</v>
+      </c>
+      <c r="N7" t="s">
+        <v>196</v>
+      </c>
+      <c r="O7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.6332046332046302E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.37837837837837801</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.6332046332046302E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.2471042471042497E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.138996138996139</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.47490347490347E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.0193050193050197E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7.7220077220077205E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.9498069498069498E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.115830115830116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0909090909090902E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.4545454545454501E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.6363636363636397E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.56818181818181801</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.1818181818181801E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7.2727272727272696E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.6363636363636397E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5.9090909090909097E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>181</v>
+      </c>
+      <c r="O9" t="s">
+        <v>182</v>
+      </c>
+      <c r="P9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.186440677966102</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9.3220338983050793E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.101694915254237</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.13559322033898299</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.110169491525424</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7.6271186440677999E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9.3220338983050793E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.4339622641509399E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.122641509433962</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.5471698113207503E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.113207547169811</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.4905660377358499E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8.4905660377358499E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5.6603773584905703E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.14150943396226401</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.122641509433962</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.10377358490565999</v>
+      </c>
+      <c r="N11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" t="s">
+        <v>221</v>
+      </c>
+      <c r="P11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O12" t="s">
+        <v>224</v>
+      </c>
+      <c r="P12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.3218390804597693E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.13793103448275901</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.10344827586206901</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.1724137931034503E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8.04597701149425E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.17816091954023</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.14942528735632199</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8.6206896551724102E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9.1954022988505704E-2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" t="s">
+        <v>196</v>
+      </c>
+      <c r="P13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.19354838709677399</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.11612903225806499</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.14838709677419401</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.8709677419354799E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5.16129032258065E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7.7419354838709695E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7.09677419354839E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.103225806451613</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.103225806451613</v>
+      </c>
+      <c r="N14" t="s">
+        <v>186</v>
+      </c>
+      <c r="O14" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.5581395348837205E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.22093023255814001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4.6511627906976702E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.0697674418604703E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9.3023255813953501E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.145348837209302</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.127906976744186</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.104651162790698</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6.9767441860465101E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>7.5581395348837205E-2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O15" t="s">
+        <v>187</v>
+      </c>
+      <c r="P15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.10666666666666701</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.193333333333333</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.146666666666667</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9.3333333333333296E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.10666666666666701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.13142857142857101</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.108571428571429</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7.4285714285714302E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9.71428571428571E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.14857142857142899</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9.71428571428571E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6.2857142857142903E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N17" t="s">
+        <v>217</v>
+      </c>
+      <c r="O17" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.118773946360153</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.390804597701149</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8.8122605363984696E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.0651340996168602E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6.1302681992337203E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6.1302681992337203E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4.2145593869731802E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9.1954022988505704E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4.5977011494252901E-2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>203</v>
+      </c>
+      <c r="O18" t="s">
+        <v>189</v>
+      </c>
+      <c r="P18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7.2164948453608199E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.2164948453608199E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.134020618556701</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.134020618556701</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.2164948453608199E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5.1546391752577303E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.19587628865979401</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.10309278350515499</v>
+      </c>
+      <c r="K19" s="1">
+        <v>8.2474226804123696E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>8.2474226804123696E-2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" t="s">
+        <v>186</v>
+      </c>
+      <c r="P19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.20168067226891E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.5630252100840303E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.7226890756302504E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.10084033613445401</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6.7226890756302504E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.40336134453781503</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6.7226890756302504E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5.0420168067226899E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>6.7226890756302504E-2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>225</v>
+      </c>
+      <c r="O20" t="s">
+        <v>208</v>
+      </c>
+      <c r="P20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="N21" t="s">
+        <v>229</v>
+      </c>
+      <c r="O21" t="s">
+        <v>194</v>
+      </c>
+      <c r="P21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.859375E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.244140625</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.138671875</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.640625E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9.1796875E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.171875</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.9296875E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>5.6640625E-2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>190</v>
+      </c>
+      <c r="P22" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9.1666666666666702E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.141666666666667</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="N23" t="s">
+        <v>239</v>
+      </c>
+      <c r="O23" t="s">
+        <v>240</v>
+      </c>
+      <c r="P23" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8.5714285714285701E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9.2857142857142902E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.7142857142857099E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5.7142857142857099E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.17857142857142899</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7.8571428571428598E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>8.5714285714285701E-2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4.5918367346938799E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6.6326530612244902E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.20408163265306101</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5.10204081632653E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>8.1632653061224497E-2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7.6530612244898003E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.23979591836734701</v>
+      </c>
+      <c r="L25" s="1">
+        <v>9.1836734693877597E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.2168674698795199E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.2168674698795199E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6.6265060240963902E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.6144578313252997E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4.81927710843374E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.102409638554217</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5.4216867469879498E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4.81927710843374E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.46385542168674698</v>
+      </c>
+      <c r="L26" s="1">
+        <v>9.6385542168674704E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4.6391752577319603E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.6391752577319603E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7.7319587628865996E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.62371134020618602</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.09278350515464E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.09278350515464E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4.1237113402061903E-2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3.09278350515464E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4.1237113402061903E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3.09278350515464E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.12834224598930499</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.10695187165775399</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.16042780748663099</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6.4171122994652399E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6.9518716577540093E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.15508021390374299</v>
+      </c>
+      <c r="I28" s="1">
+        <v>7.4866310160427801E-2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4.8128342245989303E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.13368983957219299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4.2904290429042903E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.184818481848185</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.2904290429042903E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.16171617161716201</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8.9108910891089105E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>6.9306930693069299E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.118811881188119</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6.6006600660066E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>8.9108910891089105E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.13531353135313501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.104395604395604</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="H30" s="1">
+        <v>6.0439560439560398E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.29120879120879101</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5.4945054945054903E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2.74725274725275E-2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>8.2417582417582402E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6.8376068376068397E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.11965811965812</v>
+      </c>
+      <c r="E31" s="1">
+        <v>9.4017094017094002E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.128205128205128</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8.54700854700855E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.13675213675213699</v>
+      </c>
+      <c r="J31" s="1">
+        <v>8.54700854700855E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.11965811965812</v>
+      </c>
+      <c r="L31" s="1">
+        <v>8.54700854700855E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.31111111111111101</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7.7777777777777807E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9.44444444444444E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.14444444444444399</v>
+      </c>
+      <c r="K32" s="1">
+        <v>8.8888888888888906E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.1724137931034503E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6.3218390804597693E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8.6206896551724102E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8.04597701149425E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4.5977011494252901E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.14942528735632199</v>
+      </c>
+      <c r="J33" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>6.3218390804597693E-2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5.0955414012738898E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5.7324840764331197E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4.4585987261146501E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.31210191082802502</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4.4585987261146501E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>8.9171974522293002E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.12738853503184699</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7.0063694267515894E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>7.0063694267515894E-2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.13375796178343899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3.3962264150943403E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.128301886792453</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.16603773584905701</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.15471698113207499</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.2830188679245299E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>8.6792452830188702E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>9.8113207547169803E-2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.113207547169811</v>
+      </c>
+      <c r="K35" s="1">
+        <v>9.0566037735849106E-2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>7.5471698113207503E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.13392857142857101</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.13392857142857101</v>
+      </c>
+      <c r="G36" s="1">
+        <v>8.0357142857142905E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>8.9285714285714302E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.11607142857142901</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7.1895424836601302E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8.4967320261437898E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4.5751633986928102E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>9.1503267973856203E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>9.1503267973856203E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>9.8039215686274495E-2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="K37" s="1">
+        <v>9.8039215686274495E-2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>8.4967320261437898E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.60305343511450404</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.8167938931297697E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4.58015267175573E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.8167938931297697E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.8167938931297697E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3.8167938931297697E-2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>3.8167938931297697E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.12068965517241401</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7.7586206896551699E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8.6206896551724102E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.14655172413793099</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8.6206896551724102E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>9.4827586206896505E-2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.14655172413793099</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.10344827586206901</v>
+      </c>
+      <c r="L39" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7.2992700729927001E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.1094890510948898E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.34306569343065701</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.3795620437956199E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3.6496350364963501E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.17518248175182499</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4.3795620437956199E-2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.109489051094891</v>
+      </c>
+      <c r="K40" s="1">
+        <v>6.5693430656934296E-2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>5.8394160583941597E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L41" s="1">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.18897637795275599</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7.0866141732283505E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7.8740157480315001E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.5118110236220499E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.291338582677165</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.9370078740157501E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5.5118110236220499E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>8.6614173228346497E-2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>5.5118110236220499E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>7.8740157480315001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.30392156862745101</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4.9019607843137303E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.12745098039215699</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4.9019607843137303E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6.8627450980392204E-2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>6.8627450980392204E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.54421768707482998</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4.08163265306122E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8.1632653061224497E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4.08163265306122E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5.4421768707482998E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3.4013605442176902E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4.7619047619047603E-2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>5.4421768707482998E-2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>4.08163265306122E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>6.1224489795918401E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="D45" s="1">
+        <v>6.6176470588235295E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.28676470588235298</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6.6176470588235295E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>7.3529411764705899E-2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5.1470588235294101E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>5.1470588235294101E-2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>7.3529411764705899E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>7.3529411764705899E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>5.1470588235294101E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.10989010989011</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6.5934065934065894E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.10989010989011</v>
+      </c>
+      <c r="H46" s="1">
+        <v>8.7912087912087905E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>9.3406593406593394E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>8.2417582417582402E-2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.12637362637362601</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.104395604395604</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.36486486486486502</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.37837837837838E-2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>8.1081081081081099E-2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5.4054054054054099E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>7.4324324324324301E-2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>8.7837837837837801E-2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.135135135135135</v>
+      </c>
+      <c r="J47" s="1">
+        <v>7.4324324324324301E-2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>5.4054054054054099E-2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>4.0540540540540501E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.11965811965812</v>
+      </c>
+      <c r="D48" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>8.54700854700855E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5.1282051282051301E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>9.4017094017094002E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>8.54700854700855E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>5.9829059829059797E-2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.102564102564103</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.102564102564103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7.43801652892562E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.19834710743801701</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.107438016528926</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5.7851239669421503E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.165289256198347</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5.7851239669421503E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>7.43801652892562E-2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>7.43801652892562E-2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>6.6115702479338803E-2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.12396694214876</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.165289256198347</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.173553719008264</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.12396694214876</v>
+      </c>
+      <c r="F50" s="1">
+        <v>7.43801652892562E-2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4.9586776859504099E-2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6.6115702479338803E-2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>5.7851239669421503E-2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.11570247933884301</v>
+      </c>
+      <c r="K50" s="1">
+        <v>5.7851239669421503E-2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.11570247933884301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7.5268817204301106E-2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.13978494623655899</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7.5268817204301106E-2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5.3763440860215103E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.15053763440860199</v>
+      </c>
+      <c r="I51" s="1">
+        <v>8.6021505376344107E-2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>6.4516129032258104E-2</v>
+      </c>
+      <c r="K51" s="1">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="L51" s="1">
+        <v>9.6774193548387094E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>8.8888888888888906E-2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.38518518518518502</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.11851851851851899</v>
+      </c>
+      <c r="G52" s="1">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5.9259259259259303E-2</v>
+      </c>
+      <c r="J52" s="1">
+        <v>5.1851851851851899E-2</v>
+      </c>
+      <c r="K52" s="1">
+        <v>8.1481481481481502E-2</v>
+      </c>
+      <c r="L52" s="1">
+        <v>6.6666666666666693E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.13571428571428601</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.128571428571429</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="G53" s="1">
+        <v>6.4285714285714293E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>5.7142857142857099E-2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>4.2857142857142899E-2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="K53" s="1">
+        <v>8.5714285714285701E-2</v>
+      </c>
+      <c r="L53" s="1">
+        <v>9.2857142857142902E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1">
+        <v>7.6502732240437202E-2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>7.6502732240437202E-2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.12568306010929001</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5.4644808743169397E-2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>6.0109289617486301E-2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.109289617486339</v>
+      </c>
+      <c r="I54" s="1">
+        <v>6.5573770491803296E-2</v>
+      </c>
+      <c r="J54" s="1">
+        <v>6.5573770491803296E-2</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.31693989071038298</v>
+      </c>
+      <c r="L54" s="1">
+        <v>4.91803278688525E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.7837837837837798E-2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8.6486486486486505E-2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4.86486486486487E-2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3.7837837837837798E-2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>6.4864864864864896E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.11351351351351401</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.108108108108108</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.16756756756756799</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.25945945945945897</v>
+      </c>
+      <c r="L55" s="1">
+        <v>7.5675675675675694E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5.7971014492753603E-2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="E56" s="1">
+        <v>7.9710144927536197E-2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>9.4202898550724598E-2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>7.2463768115942004E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="I56" s="1">
+        <v>7.2463768115942004E-2</v>
+      </c>
+      <c r="J56" s="1">
+        <v>7.2463768115942004E-2</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.22463768115942001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5.3030303030302997E-2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>6.8181818181818205E-2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>7.5757575757575801E-2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.174242424242424</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.12121212121212099</v>
+      </c>
+      <c r="J57" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.13636363636363599</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.10606060606060599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1">
+        <v>7.2916666666666699E-2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>7.2916666666666699E-2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.114583333333333</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.13541666666666699</v>
+      </c>
+      <c r="I58" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="L58" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.13725490196078399</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.10457516339869299</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7.1895424836601302E-2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>9.1503267973856203E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.13071895424836599</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.13725490196078399</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.13071895424836599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.21678321678321699</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.111888111888112</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.10489510489510501</v>
+      </c>
+      <c r="G60" s="1">
+        <v>6.9930069930069894E-2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>6.9930069930069894E-2</v>
+      </c>
+      <c r="I60" s="1">
+        <v>6.2937062937062901E-2</v>
+      </c>
+      <c r="J60" s="1">
+        <v>6.2937062937062901E-2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.125874125874126</v>
+      </c>
+      <c r="L60" s="1">
+        <v>8.3916083916083906E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5.9782608695652197E-2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6.5217391304347797E-2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>8.6956521739130405E-2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.157608695652174</v>
+      </c>
+      <c r="G61" s="1">
+        <v>7.0652173913043501E-2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>5.4347826086956499E-2</v>
+      </c>
+      <c r="I61" s="1">
+        <v>3.2608695652173898E-2</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.11413043478260899</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.141304347826087</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.217391304347826</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>9.8684210526315805E-2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.13815789473684201</v>
+      </c>
+      <c r="E62" s="1">
+        <v>6.5789473684210495E-2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7.8947368421052599E-2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>7.2368421052631596E-2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.13815789473684201</v>
+      </c>
+      <c r="I62" s="1">
+        <v>5.9210526315789498E-2</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K62" s="1">
+        <v>9.8684210526315805E-2</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1">
+        <v>7.7844311377245498E-2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8.9820359281437098E-2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.13772455089820401</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5.3892215568862298E-2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>8.3832335329341298E-2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>6.5868263473053898E-2</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.155688622754491</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.125748502994012</v>
+      </c>
+      <c r="K63" s="1">
+        <v>7.1856287425149698E-2</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.13772455089820401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5.7553956834532398E-2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.16546762589928099</v>
+      </c>
+      <c r="E64" s="1">
+        <v>9.3525179856115095E-2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>8.6330935251798593E-2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>7.1942446043165506E-2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.12230215827338101</v>
+      </c>
+      <c r="I64" s="1">
+        <v>7.1942446043165506E-2</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.115107913669065</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.100719424460432</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.115107913669065</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1">
+        <v>8.2802547770700605E-2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5.0955414012738898E-2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.12738853503184699</v>
+      </c>
+      <c r="F65" s="1">
+        <v>5.0955414012738898E-2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.11464968152866201</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.11464968152866201</v>
+      </c>
+      <c r="I65" s="1">
+        <v>5.0955414012738898E-2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.11464968152866201</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.14012738853503201</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0.152866242038217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.140625</v>
+      </c>
+      <c r="D66" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>7.03125E-2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="I66" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.1015625</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0.2890625</v>
+      </c>
+      <c r="L66" s="1">
+        <v>8.59375E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.11607142857142901</v>
+      </c>
+      <c r="E67" s="1">
+        <v>9.8214285714285698E-2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5.3571428571428603E-2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="I67" s="1">
+        <v>9.8214285714285698E-2</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.19642857142857101</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.11607142857142901</v>
+      </c>
+      <c r="L67" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E68" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="I68" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J68" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.106918238993711</v>
+      </c>
+      <c r="D69" s="1">
+        <v>8.17610062893082E-2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>6.2893081761006303E-2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>8.17610062893082E-2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>6.2893081761006303E-2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.14465408805031399</v>
+      </c>
+      <c r="I69" s="1">
+        <v>4.40251572327044E-2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>9.4339622641509399E-2</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.25786163522012601</v>
+      </c>
+      <c r="L69" s="1">
+        <v>6.2893081761006303E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="D70" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.12727272727272701</v>
+      </c>
+      <c r="F70" s="1">
+        <v>7.2727272727272696E-2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>7.2727272727272696E-2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>7.2727272727272696E-2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="K70" s="1">
+        <v>8.1818181818181804E-2</v>
+      </c>
+      <c r="L70" s="1">
+        <v>8.1818181818181804E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6.3694267515923594E-2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.121019108280255</v>
+      </c>
+      <c r="E71" s="1">
+        <v>6.3694267515923594E-2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.10828025477707</v>
+      </c>
+      <c r="G71" s="1">
+        <v>6.3694267515923594E-2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.121019108280255</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.10828025477707</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.101910828025478</v>
+      </c>
+      <c r="K71" s="1">
+        <v>8.9171974522293002E-2</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.15923566878980899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G72" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="I72" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.140625</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.140625</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1">
+        <v>6.1068702290076299E-2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6.1068702290076299E-2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4.58015267175573E-2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>8.3969465648855005E-2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.106870229007634</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.14503816793893101</v>
+      </c>
+      <c r="I73" s="1">
+        <v>6.8702290076335895E-2</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.16030534351145001</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.19083969465648901</v>
+      </c>
+      <c r="L73" s="1">
+        <v>7.6335877862595394E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>8.6330935251798593E-2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.17985611510791399</v>
+      </c>
+      <c r="E74" s="1">
+        <v>7.1942446043165506E-2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>7.9136690647481994E-2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>9.3525179856115095E-2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>5.7553956834532398E-2</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.107913669064748</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.13669064748201401</v>
+      </c>
+      <c r="K74" s="1">
+        <v>6.4748201438848907E-2</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.12230215827338101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>7.8947368421052599E-2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.24736842105263199</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.12631578947368399</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3.6842105263157898E-2</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.115789473684211</v>
+      </c>
+      <c r="I75" s="1">
+        <v>7.3684210526315796E-2</v>
+      </c>
+      <c r="J75" s="1">
+        <v>6.3157894736842093E-2</v>
+      </c>
+      <c r="K75" s="1">
+        <v>6.3157894736842093E-2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>9.4736842105263203E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1">
+        <v>7.3770491803278701E-2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.13114754098360701</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.10655737704918</v>
+      </c>
+      <c r="F76" s="1">
+        <v>5.7377049180327898E-2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.10655737704918</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.13934426229508201</v>
+      </c>
+      <c r="I76" s="1">
+        <v>6.5573770491803296E-2</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.14754098360655701</v>
+      </c>
+      <c r="K76" s="1">
+        <v>7.3770491803278701E-2</v>
+      </c>
+      <c r="L76" s="1">
+        <v>9.8360655737704902E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5.1282051282051301E-2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.40512820512820502</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4.1025641025640998E-2</v>
+      </c>
+      <c r="F77" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>7.1794871794871803E-2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3.0769230769230799E-2</v>
+      </c>
+      <c r="I77" s="1">
+        <v>9.2307692307692299E-2</v>
+      </c>
+      <c r="J77" s="1">
+        <v>7.1794871794871803E-2</v>
+      </c>
+      <c r="K77" s="1">
+        <v>4.1025641025640998E-2</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0.117948717948718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <v>8.1967213114754106E-2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>9.0163934426229497E-2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.114754098360656</v>
+      </c>
+      <c r="F78" s="1">
+        <v>8.1967213114754106E-2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.10655737704918</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.114754098360656</v>
+      </c>
+      <c r="I78" s="1">
+        <v>5.7377049180327898E-2</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.13114754098360701</v>
+      </c>
+      <c r="K78" s="1">
+        <v>6.5573770491803296E-2</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.15573770491803299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5.3333333333333302E-2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8.6666666666666697E-2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>8.6666666666666697E-2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.10666666666666701</v>
+      </c>
+      <c r="I79" s="1">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="J79" s="1">
+        <v>4.6666666666666697E-2</v>
+      </c>
+      <c r="K79" s="1">
+        <v>4.6666666666666697E-2</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0.32666666666666699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E80" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4.3269230769230803E-2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>5.7692307692307702E-2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F81" s="1">
+        <v>7.2115384615384595E-2</v>
+      </c>
+      <c r="G81" s="1">
+        <v>5.2884615384615398E-2</v>
+      </c>
+      <c r="H81" s="1">
+        <v>6.7307692307692304E-2</v>
+      </c>
+      <c r="I81" s="1">
+        <v>2.8846153846153799E-2</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0.15865384615384601</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0.40384615384615402</v>
+      </c>
+      <c r="L81" s="1">
+        <v>5.2884615384615398E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1">
+        <v>8.1818181818181804E-2</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.12727272727272701</v>
+      </c>
+      <c r="E82" s="1">
+        <v>6.3636363636363602E-2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>8.1818181818181804E-2</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.13636363636363599</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.17272727272727301</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="K82" s="1">
+        <v>7.2727272727272696E-2</v>
+      </c>
+      <c r="L82" s="1">
+        <v>5.4545454545454501E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.101851851851852</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G83" s="1">
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.101851851851852</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0.13888888888888901</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0.148148148148148</v>
+      </c>
+      <c r="L83" s="1">
+        <v>6.4814814814814797E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6.0913705583756299E-2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>6.5989847715736002E-2</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5.0761421319797002E-2</v>
+      </c>
+      <c r="F84" s="1">
+        <v>6.0913705583756299E-2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>7.1065989847715699E-2</v>
+      </c>
+      <c r="H84" s="1">
+        <v>9.13705583756345E-2</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.101522842639594</v>
+      </c>
+      <c r="J84" s="1">
+        <v>7.1065989847715699E-2</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0.365482233502538</v>
+      </c>
+      <c r="L84" s="1">
+        <v>6.0913705583756299E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>6.8627450980392204E-2</v>
+      </c>
+      <c r="F85" s="1">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.10784313725490199</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="K85" s="1">
+        <v>6.8627450980392204E-2</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5.7142857142857099E-2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>5.7142857142857099E-2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5.7142857142857099E-2</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="G86" s="1">
+        <v>7.6190476190476197E-2</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="I86" s="1">
+        <v>7.6190476190476197E-2</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.17142857142857101</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0.114285714285714</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6.7226890756302504E-2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>8.40336134453782E-2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.10084033613445401</v>
+      </c>
+      <c r="F87" s="1">
+        <v>9.2436974789915999E-2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>9.2436974789915999E-2</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.109243697478992</v>
+      </c>
+      <c r="I87" s="1">
+        <v>4.20168067226891E-2</v>
+      </c>
+      <c r="J87" s="1">
+        <v>9.2436974789915999E-2</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.24369747899159699</v>
+      </c>
+      <c r="L87" s="1">
+        <v>7.5630252100840303E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5.4054054054054099E-2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.20720720720720701</v>
+      </c>
+      <c r="E88" s="1">
+        <v>8.1081081081081099E-2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>6.3063063063063099E-2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.117117117117117</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.162162162162162</v>
+      </c>
+      <c r="I88" s="1">
+        <v>6.3063063063063099E-2</v>
+      </c>
+      <c r="J88" s="1">
+        <v>6.3063063063063099E-2</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0.126126126126126</v>
+      </c>
+      <c r="L88" s="1">
+        <v>6.3063063063063099E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1">
+        <v>9.2105263157894704E-2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.197368421052632</v>
+      </c>
+      <c r="E89" s="1">
+        <v>8.55263157894737E-2</v>
+      </c>
+      <c r="F89" s="1">
+        <v>7.8947368421052599E-2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>7.2368421052631596E-2</v>
+      </c>
+      <c r="H89" s="1">
+        <v>6.5789473684210495E-2</v>
+      </c>
+      <c r="I89" s="1">
+        <v>8.55263157894737E-2</v>
+      </c>
+      <c r="J89" s="1">
+        <v>7.8947368421052599E-2</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="L89" s="1">
+        <v>8.55263157894737E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="D90" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4.8951048951049E-2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.20979020979021001</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.10489510489510501</v>
+      </c>
+      <c r="F91" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="G91" s="1">
+        <v>5.5944055944055902E-2</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.125874125874126</v>
+      </c>
+      <c r="I91" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="J91" s="1">
+        <v>9.7902097902097904E-2</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.125874125874126</v>
+      </c>
+      <c r="L91" s="1">
+        <v>6.2937062937062901E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4.8913043478260899E-2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>5.9782608695652197E-2</v>
+      </c>
+      <c r="E92" s="1">
+        <v>5.4347826086956499E-2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.13586956521739099</v>
+      </c>
+      <c r="G92" s="1">
+        <v>6.5217391304347797E-2</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.184782608695652</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.13586956521739099</v>
+      </c>
+      <c r="J92" s="1">
+        <v>8.1521739130434798E-2</v>
+      </c>
+      <c r="K92" s="1">
+        <v>8.1521739130434798E-2</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0.15217391304347799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="E93" s="1">
+        <v>4.5454545454545497E-2</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.10606060606060599</v>
+      </c>
+      <c r="G93" s="1">
+        <v>5.3030303030302997E-2</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.12121212121212099</v>
+      </c>
+      <c r="J93" s="1">
+        <v>7.5757575757575801E-2</v>
+      </c>
+      <c r="K93" s="1">
+        <v>7.5757575757575801E-2</v>
+      </c>
+      <c r="L93" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>7.0588235294117604E-2</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.129411764705882</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.105882352941176</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.105882352941176</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.14117647058823499</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.105882352941176</v>
+      </c>
+      <c r="I94" s="1">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.105882352941176</v>
+      </c>
+      <c r="K94" s="1">
+        <v>7.0588235294117604E-2</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0.105882352941176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5.4644808743169397E-2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.14207650273224001</v>
+      </c>
+      <c r="E95" s="1">
+        <v>6.0109289617486301E-2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>6.0109289617486301E-2</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.103825136612022</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.12021857923497301</v>
+      </c>
+      <c r="I95" s="1">
+        <v>7.6502732240437202E-2</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.14207650273224001</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0.15300546448087399</v>
+      </c>
+      <c r="L95" s="1">
+        <v>8.7431693989070997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4.9327354260089697E-2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.112107623318386</v>
+      </c>
+      <c r="E96" s="1">
+        <v>8.9686098654708502E-2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.16591928251121099</v>
+      </c>
+      <c r="G96" s="1">
+        <v>6.2780269058296007E-2</v>
+      </c>
+      <c r="H96" s="1">
+        <v>8.0717488789237707E-2</v>
+      </c>
+      <c r="I96" s="1">
+        <v>9.8654708520179393E-2</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.17040358744394599</v>
+      </c>
+      <c r="K96" s="1">
+        <v>8.9686098654708502E-2</v>
+      </c>
+      <c r="L96" s="1">
+        <v>8.0717488789237707E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1">
+        <v>6.9930069930069894E-2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4.8951048951049E-2</v>
+      </c>
+      <c r="E97" s="1">
+        <v>4.8951048951049E-2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.20279720279720301</v>
+      </c>
+      <c r="G97" s="1">
+        <v>6.9930069930069894E-2</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="I97" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.15384615384615399</v>
+      </c>
+      <c r="K97" s="1">
+        <v>4.1958041958042001E-2</v>
+      </c>
+      <c r="L97" s="1">
+        <v>5.5944055944055902E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.12931034482758599</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.163793103448276</v>
+      </c>
+      <c r="E98" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="F98" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="G98" s="1">
+        <v>6.0344827586206899E-2</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.13793103448275901</v>
+      </c>
+      <c r="I98" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0.11206896551724101</v>
+      </c>
+      <c r="K98" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0.12068965517241401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1">
+        <v>7.9439252336448593E-2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>6.0747663551401897E-2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>7.00934579439252E-2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>5.60747663551402E-2</v>
+      </c>
+      <c r="G99" s="1">
+        <v>5.60747663551402E-2</v>
+      </c>
+      <c r="H99" s="1">
+        <v>7.4766355140186896E-2</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.14953271028037399</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.27570093457943901</v>
+      </c>
+      <c r="K99" s="1">
+        <v>4.2056074766355103E-2</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0.13551401869158899</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.132743362831858</v>
+      </c>
+      <c r="D100" s="1">
+        <v>7.9646017699115002E-2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.132743362831858</v>
+      </c>
+      <c r="F100" s="1">
+        <v>7.0796460176991094E-2</v>
+      </c>
+      <c r="G100" s="1">
+        <v>6.1946902654867297E-2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.106194690265487</v>
+      </c>
+      <c r="I100" s="1">
+        <v>8.8495575221238895E-2</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0.14159292035398199</v>
+      </c>
+      <c r="K100" s="1">
+        <v>9.7345132743362803E-2</v>
+      </c>
+      <c r="L100" s="1">
+        <v>8.8495575221238895E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101" s="1">
+        <v>7.2222222222222202E-2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="E101" s="1">
+        <v>8.8888888888888906E-2</v>
+      </c>
+      <c r="F101" s="1">
+        <v>8.8888888888888906E-2</v>
+      </c>
+      <c r="G101" s="1">
+        <v>7.7777777777777807E-2</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I101" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0.227777777777778</v>
+      </c>
+      <c r="K101" s="1">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="L101" s="1">
+        <v>8.8888888888888906E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="F102" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G102" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.18390804597701099</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.114942528735632</v>
+      </c>
+      <c r="F103" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.114942528735632</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.10344827586206901</v>
+      </c>
+      <c r="I103" s="1">
+        <v>8.04597701149425E-2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.114942528735632</v>
+      </c>
+      <c r="K103" s="1">
+        <v>8.04597701149425E-2</v>
+      </c>
+      <c r="L103" s="1">
+        <v>8.04597701149425E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="D104" s="1">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0.103174603174603</v>
+      </c>
+      <c r="F104" s="1">
+        <v>4.7619047619047603E-2</v>
+      </c>
+      <c r="G104" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.134920634920635</v>
+      </c>
+      <c r="I104" s="1">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0.119047619047619</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0.206349206349206</v>
+      </c>
+      <c r="L104" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.1015625</v>
+      </c>
+      <c r="D105" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="G105" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.1171875</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.1328125</v>
+      </c>
+      <c r="J105" s="1">
+        <v>7.03125E-2</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0.203125</v>
+      </c>
+      <c r="L105" s="1">
+        <v>8.59375E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3.8674033149171297E-2</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.12707182320442001</v>
+      </c>
+      <c r="E106" s="1">
+        <v>7.7348066298342497E-2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>3.8674033149171297E-2</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.10497237569060799</v>
+      </c>
+      <c r="H106" s="1">
+        <v>7.18232044198895E-2</v>
+      </c>
+      <c r="I106" s="1">
+        <v>6.6298342541436503E-2</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0.110497237569061</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0.325966850828729</v>
+      </c>
+      <c r="L106" s="1">
+        <v>3.8674033149171297E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1.6025641025641E-2</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.12660256410256401</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1.9230769230769201E-2</v>
+      </c>
+      <c r="F107" s="1">
+        <v>4.6474358974358997E-2</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.58653846153846201</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2.4038461538461502E-2</v>
+      </c>
+      <c r="I107" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J107" s="1">
+        <v>4.3269230769230803E-2</v>
+      </c>
+      <c r="K107" s="1">
+        <v>3.6858974358974401E-2</v>
+      </c>
+      <c r="L107" s="1">
+        <v>3.8461538461538498E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108" s="1">
+        <v>6.7010309278350499E-2</v>
+      </c>
+      <c r="D108" s="1">
+        <v>6.18556701030928E-2</v>
+      </c>
+      <c r="E108" s="1">
+        <v>7.2164948453608199E-2</v>
+      </c>
+      <c r="F108" s="1">
+        <v>7.2164948453608199E-2</v>
+      </c>
+      <c r="G108" s="1">
+        <v>6.18556701030928E-2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.231958762886598</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.12886597938144301</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0.10309278350515499</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0.10309278350515499</v>
+      </c>
+      <c r="L108" s="1">
+        <v>9.7938144329896906E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2.9761904761904798E-2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>9.5238095238095205E-2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0.15476190476190499</v>
+      </c>
+      <c r="F109" s="1">
+        <v>7.7380952380952397E-2</v>
+      </c>
+      <c r="G109" s="1">
+        <v>5.95238095238095E-2</v>
+      </c>
+      <c r="H109" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="I109" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="J109" s="1">
+        <v>7.7380952380952397E-2</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0.172619047619048</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>6</v>
+      </c>
+      <c r="C110" s="1">
+        <v>7.8947368421052599E-2</v>
+      </c>
+      <c r="D110" s="1">
+        <v>7.8947368421052599E-2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>7.8947368421052599E-2</v>
+      </c>
+      <c r="F110" s="1">
+        <v>6.14035087719298E-2</v>
+      </c>
+      <c r="G110" s="1">
+        <v>7.0175438596491196E-2</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.21929824561403499</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0.12280701754386</v>
+      </c>
+      <c r="K110" s="1">
+        <v>8.7719298245614002E-2</v>
+      </c>
+      <c r="L110" s="1">
+        <v>4.3859649122807001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4.9689440993788803E-2</v>
+      </c>
+      <c r="D111" s="1">
+        <v>8.0745341614906804E-2</v>
+      </c>
+      <c r="E111" s="1">
+        <v>6.8322981366459604E-2</v>
+      </c>
+      <c r="F111" s="1">
+        <v>3.1055900621118002E-2</v>
+      </c>
+      <c r="G111" s="1">
+        <v>7.4534161490683204E-2</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="I111" s="1">
+        <v>4.9689440993788803E-2</v>
+      </c>
+      <c r="J111" s="1">
+        <v>7.4534161490683204E-2</v>
+      </c>
+      <c r="K111" s="1">
+        <v>5.5900621118012403E-2</v>
+      </c>
+      <c r="L111" s="1">
+        <v>8.0745341614906804E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="E112" s="1">
+        <v>7.3529411764705899E-2</v>
+      </c>
+      <c r="F112" s="1">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="G112" s="1">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="H112" s="1">
+        <v>8.0882352941176502E-2</v>
+      </c>
+      <c r="I112" s="1">
+        <v>8.0882352941176502E-2</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0.16911764705882401</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0.183823529411765</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0.11764705882352899</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4.58015267175573E-2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.18320610687022901</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0.122137404580153</v>
+      </c>
+      <c r="F113" s="1">
+        <v>8.3969465648855005E-2</v>
+      </c>
+      <c r="G113" s="1">
+        <v>4.58015267175573E-2</v>
+      </c>
+      <c r="H113" s="1">
+        <v>9.1603053435114504E-2</v>
+      </c>
+      <c r="I113" s="1">
+        <v>7.6335877862595394E-2</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0.13740458015267201</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0.114503816793893</v>
+      </c>
+      <c r="L113" s="1">
+        <v>9.9236641221374003E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="D114" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>7.03125E-2</v>
+      </c>
+      <c r="F114" s="1">
+        <v>8.59375E-2</v>
+      </c>
+      <c r="G114" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.1640625</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.1640625</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0.1171875</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0.109375</v>
+      </c>
+      <c r="L114" s="1">
+        <v>5.46875E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E115" s="1">
+        <v>5.3333333333333302E-2</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I115" s="1">
+        <v>7.3333333333333306E-2</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" s="1">
+        <v>8.0357142857142905E-2</v>
+      </c>
+      <c r="D116" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="E116" s="1">
+        <v>8.0357142857142905E-2</v>
+      </c>
+      <c r="F116" s="1">
+        <v>5.3571428571428603E-2</v>
+      </c>
+      <c r="G116" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0.33035714285714302</v>
+      </c>
+      <c r="I116" s="1">
+        <v>8.9285714285714302E-2</v>
+      </c>
+      <c r="J116" s="1">
+        <v>9.8214285714285698E-2</v>
+      </c>
+      <c r="K116" s="1">
+        <v>8.0357142857142905E-2</v>
+      </c>
+      <c r="L116" s="1">
+        <v>4.4642857142857102E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.13740458015267201</v>
+      </c>
+      <c r="D117" s="1">
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0.14503816793893101</v>
+      </c>
+      <c r="F117" s="1">
+        <v>8.3969465648855005E-2</v>
+      </c>
+      <c r="G117" s="1">
+        <v>5.34351145038168E-2</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0.229007633587786</v>
+      </c>
+      <c r="I117" s="1">
+        <v>4.58015267175573E-2</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0.106870229007634</v>
+      </c>
+      <c r="K117" s="1">
+        <v>7.6335877862595394E-2</v>
+      </c>
+      <c r="L117" s="1">
+        <v>6.8702290076335895E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2.8089887640449399E-2</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2.6217228464419502E-2</v>
+      </c>
+      <c r="E118" s="1">
+        <v>6.7415730337078594E-2</v>
+      </c>
+      <c r="F118" s="1">
+        <v>4.6816479400749102E-2</v>
+      </c>
+      <c r="G118" s="1">
+        <v>3.5580524344569299E-2</v>
+      </c>
+      <c r="H118" s="1">
+        <v>3.3707865168539297E-2</v>
+      </c>
+      <c r="I118" s="1">
+        <v>3.3707865168539297E-2</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0.67041198501872701</v>
+      </c>
+      <c r="K118" s="1">
+        <v>1.6853932584269701E-2</v>
+      </c>
+      <c r="L118" s="1">
+        <v>4.11985018726592E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119" s="1">
+        <v>9.7902097902097904E-2</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.26573426573426601</v>
+      </c>
+      <c r="E119" s="1">
+        <v>6.2937062937062901E-2</v>
+      </c>
+      <c r="F119" s="1">
+        <v>6.9930069930069894E-2</v>
+      </c>
+      <c r="G119" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.160839160839161</v>
+      </c>
+      <c r="I119" s="1">
+        <v>4.1958041958042001E-2</v>
+      </c>
+      <c r="J119" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="K119" s="1">
+        <v>6.2937062937062901E-2</v>
+      </c>
+      <c r="L119" s="1">
+        <v>5.5944055944055902E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.14176245210728</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0.118773946360153</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.14176245210728</v>
+      </c>
+      <c r="G120" s="1">
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.126436781609195</v>
+      </c>
+      <c r="I120" s="1">
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="J120" s="1">
+        <v>8.04597701149425E-2</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0.122605363984674</v>
+      </c>
+      <c r="L120" s="1">
+        <v>8.4291187739463605E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121" s="1">
+        <v>6.3380281690140802E-2</v>
+      </c>
+      <c r="D121" s="1">
+        <v>5.63380281690141E-2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0.13380281690140799</v>
+      </c>
+      <c r="F121" s="1">
+        <v>3.5211267605633798E-2</v>
+      </c>
+      <c r="G121" s="1">
+        <v>7.7464788732394402E-2</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.176056338028169</v>
+      </c>
+      <c r="I121" s="1">
+        <v>7.0422535211267595E-2</v>
+      </c>
+      <c r="J121" s="1">
+        <v>8.4507042253521097E-2</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0.19718309859154901</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0.105633802816901</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="D122" s="1">
+        <v>6.15384615384615E-2</v>
+      </c>
+      <c r="E122" s="1">
+        <v>8.4615384615384606E-2</v>
+      </c>
+      <c r="F122" s="1">
+        <v>5.3846153846153801E-2</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.16153846153846199</v>
+      </c>
+      <c r="H122" s="1">
+        <v>5.3846153846153801E-2</v>
+      </c>
+      <c r="I122" s="1">
+        <v>8.4615384615384606E-2</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0.138461538461538</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0.146153846153846</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0.138461538461538</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.109243697478992</v>
+      </c>
+      <c r="D123" s="1">
+        <v>5.0420168067226899E-2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.151260504201681</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.13445378151260501</v>
+      </c>
+      <c r="G123" s="1">
+        <v>7.5630252100840303E-2</v>
+      </c>
+      <c r="H123" s="1">
+        <v>8.40336134453782E-2</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.10084033613445401</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0.109243697478992</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="L123" s="1">
+        <v>6.7226890756302504E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>8</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.10891089108910899</v>
+      </c>
+      <c r="D124" s="1">
+        <v>7.9207920792079195E-2</v>
+      </c>
+      <c r="E124" s="1">
+        <v>9.9009900990099001E-2</v>
+      </c>
+      <c r="F124" s="1">
+        <v>6.9306930693069299E-2</v>
+      </c>
+      <c r="G124" s="1">
+        <v>7.9207920792079195E-2</v>
+      </c>
+      <c r="H124" s="1">
+        <v>7.9207920792079195E-2</v>
+      </c>
+      <c r="I124" s="1">
+        <v>8.9108910891089105E-2</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0.17821782178217799</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0.14851485148514901</v>
+      </c>
+      <c r="L124" s="1">
+        <v>6.9306930693069299E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D125" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F125" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="I125" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="K125" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L125" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" s="1">
+        <v>4.1958041958042001E-2</v>
+      </c>
+      <c r="D126" s="1">
+        <v>4.8951048951049E-2</v>
+      </c>
+      <c r="E126" s="1">
+        <v>6.2937062937062901E-2</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.10489510489510501</v>
+      </c>
+      <c r="G126" s="1">
+        <v>5.5944055944055902E-2</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0.37062937062937101</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0.10489510489510501</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0.10489510489510501</v>
+      </c>
+      <c r="K126" s="1">
+        <v>4.8951048951049E-2</v>
+      </c>
+      <c r="L126" s="1">
+        <v>5.5944055944055902E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.21527777777777801</v>
+      </c>
+      <c r="E127" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="H127" s="1">
+        <v>9.0277777777777804E-2</v>
+      </c>
+      <c r="I127" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="J127" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="K127" s="1">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0.118055555555556</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128" s="1">
+        <v>7.9268292682926803E-2</v>
+      </c>
+      <c r="D128" s="1">
+        <v>4.8780487804878099E-2</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.109756097560976</v>
+      </c>
+      <c r="F128" s="1">
+        <v>7.9268292682926803E-2</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.103658536585366</v>
+      </c>
+      <c r="H128" s="1">
+        <v>4.2682926829268303E-2</v>
+      </c>
+      <c r="I128" s="1">
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0.18292682926829301</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0.176829268292683</v>
+      </c>
+      <c r="L128" s="1">
+        <v>7.9268292682926803E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129" s="1">
+        <v>5.5214723926380403E-2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>9.2024539877300596E-2</v>
+      </c>
+      <c r="E129" s="1">
+        <v>8.5889570552147201E-2</v>
+      </c>
+      <c r="F129" s="1">
+        <v>9.8159509202454004E-2</v>
+      </c>
+      <c r="G129" s="1">
+        <v>9.2024539877300596E-2</v>
+      </c>
+      <c r="H129" s="1">
+        <v>8.5889570552147201E-2</v>
+      </c>
+      <c r="I129" s="1">
+        <v>6.13496932515337E-2</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0.23312883435582801</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0.11656441717791401</v>
+      </c>
+      <c r="L129" s="1">
+        <v>7.9754601226993904E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="F130" s="1">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="G130" s="1">
+        <v>4.3209876543209902E-2</v>
+      </c>
+      <c r="H130" s="1">
+        <v>4.9382716049382699E-2</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0.61728395061728403</v>
+      </c>
+      <c r="J130" s="1">
+        <v>4.3209876543209902E-2</v>
+      </c>
+      <c r="K130" s="1">
+        <v>4.9382716049382699E-2</v>
+      </c>
+      <c r="L130" s="1">
+        <v>3.0864197530864199E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7</v>
+      </c>
+      <c r="C131" s="1">
+        <v>6.2893081761006303E-2</v>
+      </c>
+      <c r="D131" s="1">
+        <v>6.2893081761006303E-2</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4.40251572327044E-2</v>
+      </c>
+      <c r="F131" s="1">
+        <v>6.9182389937106903E-2</v>
+      </c>
+      <c r="G131" s="1">
+        <v>4.40251572327044E-2</v>
+      </c>
+      <c r="H131" s="1">
+        <v>5.0314465408804999E-2</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0.40251572327044</v>
+      </c>
+      <c r="J131" s="1">
+        <v>5.6603773584905703E-2</v>
+      </c>
+      <c r="K131" s="1">
+        <v>7.5471698113207503E-2</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0.13207547169811301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.154929577464789</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.11971830985915501</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0.140845070422535</v>
+      </c>
+      <c r="F132" s="1">
+        <v>5.63380281690141E-2</v>
+      </c>
+      <c r="G132" s="1">
+        <v>6.3380281690140802E-2</v>
+      </c>
+      <c r="H132" s="1">
+        <v>9.1549295774647904E-2</v>
+      </c>
+      <c r="I132" s="1">
+        <v>4.2253521126760597E-2</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0.12676056338028199</v>
+      </c>
+      <c r="K132" s="1">
+        <v>7.0422535211267595E-2</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0.13380281690140799</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133" s="1">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.10101010101010099</v>
+      </c>
+      <c r="E133" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.12121212121212099</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0.17171717171717199</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0.10101010101010099</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0.10101010101010099</v>
+      </c>
+      <c r="K133" s="1">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="L133" s="1">
+        <v>8.0808080808080801E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>8</v>
+      </c>
+      <c r="C134" s="1">
+        <v>8.7378640776699004E-2</v>
+      </c>
+      <c r="D134" s="1">
+        <v>7.7669902912621394E-2</v>
+      </c>
+      <c r="E134" s="1">
+        <v>8.7378640776699004E-2</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.12621359223301001</v>
+      </c>
+      <c r="G134" s="1">
+        <v>7.7669902912621394E-2</v>
+      </c>
+      <c r="H134" s="1">
+        <v>6.7961165048543701E-2</v>
+      </c>
+      <c r="I134" s="1">
+        <v>8.7378640776699004E-2</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0.14563106796116501</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0.106796116504854</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0.13592233009708701</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135" s="1">
+        <v>6.7567567567567599E-2</v>
+      </c>
+      <c r="D135" s="1">
+        <v>4.72972972972973E-2</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0.15540540540540501</v>
+      </c>
+      <c r="F135" s="1">
+        <v>8.1081081081081099E-2</v>
+      </c>
+      <c r="G135" s="1">
+        <v>4.72972972972973E-2</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0.101351351351351</v>
+      </c>
+      <c r="I135" s="1">
+        <v>8.7837837837837801E-2</v>
+      </c>
+      <c r="J135" s="1">
+        <v>6.7567567567567599E-2</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0.101351351351351</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0.24324324324324301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1">
+        <v>5.2325581395348798E-2</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.27325581395348802</v>
+      </c>
+      <c r="E136" s="1">
+        <v>5.8139534883720902E-2</v>
+      </c>
+      <c r="F136" s="1">
+        <v>8.7209302325581398E-2</v>
+      </c>
+      <c r="G136" s="1">
+        <v>8.7209302325581398E-2</v>
+      </c>
+      <c r="H136" s="1">
+        <v>4.6511627906976702E-2</v>
+      </c>
+      <c r="I136" s="1">
+        <v>6.3953488372092998E-2</v>
+      </c>
+      <c r="J136" s="1">
+        <v>8.7209302325581398E-2</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0.145348837209302</v>
+      </c>
+      <c r="L136" s="1">
+        <v>9.8837209302325604E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="D137" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="E137" s="1">
+        <v>5.7291666666666699E-2</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0.119791666666667</v>
+      </c>
+      <c r="G137" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="I137" s="1">
+        <v>5.7291666666666699E-2</v>
+      </c>
+      <c r="J137" s="1">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="K137" s="1">
+        <v>8.8541666666666699E-2</v>
+      </c>
+      <c r="L137" s="1">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>8</v>
+      </c>
+      <c r="C138" s="1">
+        <v>4.7058823529411799E-2</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.105882352941176</v>
+      </c>
+      <c r="E138" s="1">
+        <v>4.7058823529411799E-2</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.123529411764706</v>
+      </c>
+      <c r="G138" s="1">
+        <v>5.29411764705882E-2</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0.16470588235294101</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0.14117647058823499</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="K138" s="1">
+        <v>2.9411764705882401E-2</v>
+      </c>
+      <c r="L138" s="1">
+        <v>0.111764705882353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.105633802816901</v>
+      </c>
+      <c r="D139" s="1">
+        <v>8.4507042253521097E-2</v>
+      </c>
+      <c r="E139" s="1">
+        <v>7.0422535211267595E-2</v>
+      </c>
+      <c r="F139" s="1">
+        <v>8.4507042253521097E-2</v>
+      </c>
+      <c r="G139" s="1">
+        <v>4.92957746478873E-2</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0.11971830985915501</v>
+      </c>
+      <c r="I139" s="1">
+        <v>7.7464788732394402E-2</v>
+      </c>
+      <c r="J139" s="1">
+        <v>9.85915492957746E-2</v>
+      </c>
+      <c r="K139" s="1">
+        <v>7.0422535211267595E-2</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0.23943661971831001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1">
+        <v>5.3691275167785199E-2</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0.23489932885906001</v>
+      </c>
+      <c r="E140" s="1">
+        <v>4.6979865771812103E-2</v>
+      </c>
+      <c r="F140" s="1">
+        <v>9.3959731543624206E-2</v>
+      </c>
+      <c r="G140" s="1">
+        <v>6.0402684563758399E-2</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0.14093959731543601</v>
+      </c>
+      <c r="I140" s="1">
+        <v>6.7114093959731502E-2</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0.114093959731544</v>
+      </c>
+      <c r="K140" s="1">
+        <v>6.0402684563758399E-2</v>
+      </c>
+      <c r="L140" s="1">
+        <v>0.12751677852349</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1">
+        <v>8.6956521739130405E-2</v>
+      </c>
+      <c r="D141" s="1">
+        <v>6.08695652173913E-2</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0.139130434782609</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0.11304347826087</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.121739130434783</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.13043478260869601</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0.15652173913043499</v>
+      </c>
+      <c r="J141" s="1">
+        <v>5.21739130434783E-2</v>
+      </c>
+      <c r="K141" s="1">
+        <v>6.08695652173913E-2</v>
+      </c>
+      <c r="L141" s="1">
+        <v>7.8260869565217397E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="C142" s="1">
+        <v>6.9930069930069894E-2</v>
+      </c>
+      <c r="D142" s="1">
+        <v>9.7902097902097904E-2</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0.111888111888112</v>
+      </c>
+      <c r="F142" s="1">
+        <v>8.3916083916083906E-2</v>
+      </c>
+      <c r="G142" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="H142" s="1">
+        <v>8.3916083916083906E-2</v>
+      </c>
+      <c r="I142" s="1">
+        <v>8.3916083916083906E-2</v>
+      </c>
+      <c r="J142" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0.223776223776224</v>
+      </c>
+      <c r="L142" s="1">
+        <v>9.0909090909090898E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.16025641025640999</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.128205128205128</v>
+      </c>
+      <c r="E143" s="1">
+        <v>9.6153846153846201E-2</v>
+      </c>
+      <c r="F143" s="1">
+        <v>5.1282051282051301E-2</v>
+      </c>
+      <c r="G143" s="1">
+        <v>5.1282051282051301E-2</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0.108974358974359</v>
+      </c>
+      <c r="I143" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="J143" s="1">
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0.18589743589743599</v>
+      </c>
+      <c r="L143" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>10</v>
+      </c>
+      <c r="C144" s="1">
+        <v>5.7894736842105297E-2</v>
+      </c>
+      <c r="D144" s="1">
+        <v>4.2105263157894701E-2</v>
+      </c>
+      <c r="E144" s="1">
+        <v>6.8421052631578994E-2</v>
+      </c>
+      <c r="F144" s="1">
+        <v>7.3684210526315796E-2</v>
+      </c>
+      <c r="G144" s="1">
+        <v>5.2631578947368397E-2</v>
+      </c>
+      <c r="H144" s="1">
+        <v>6.3157894736842093E-2</v>
+      </c>
+      <c r="I144" s="1">
+        <v>3.1578947368421102E-2</v>
+      </c>
+      <c r="J144" s="1">
+        <v>6.3157894736842093E-2</v>
+      </c>
+      <c r="K144" s="1">
+        <v>7.3684210526315796E-2</v>
+      </c>
+      <c r="L144" s="1">
+        <v>0.47368421052631599</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>10</v>
+      </c>
+      <c r="C145" s="1">
+        <v>8.0645161290322606E-2</v>
+      </c>
+      <c r="D145" s="1">
+        <v>2.68817204301075E-2</v>
+      </c>
+      <c r="E145" s="1">
+        <v>8.0645161290322606E-2</v>
+      </c>
+      <c r="F145" s="1">
+        <v>4.3010752688171998E-2</v>
+      </c>
+      <c r="G145" s="1">
+        <v>4.3010752688171998E-2</v>
+      </c>
+      <c r="H145" s="1">
+        <v>8.0645161290322606E-2</v>
+      </c>
+      <c r="I145" s="1">
+        <v>3.7634408602150497E-2</v>
+      </c>
+      <c r="J145" s="1">
+        <v>6.9892473118279605E-2</v>
+      </c>
+      <c r="K145" s="1">
+        <v>3.7634408602150497E-2</v>
+      </c>
+      <c r="L145" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0.281481481481481</v>
+      </c>
+      <c r="E146" s="1">
+        <v>5.1851851851851899E-2</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="G146" s="1">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="I146" s="1">
+        <v>7.4074074074074098E-2</v>
+      </c>
+      <c r="J146" s="1">
+        <v>5.9259259259259303E-2</v>
+      </c>
+      <c r="K146" s="1">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="L146" s="1">
+        <v>0.155555555555556</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1">
+        <v>8.1081081081081099E-2</v>
+      </c>
+      <c r="D147" s="1">
+        <v>7.2072072072072099E-2</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0.117117117117117</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0.171171171171171</v>
+      </c>
+      <c r="G147" s="1">
+        <v>6.3063063063063099E-2</v>
+      </c>
+      <c r="H147" s="1">
+        <v>7.2072072072072099E-2</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0.126126126126126</v>
+      </c>
+      <c r="J147" s="1">
+        <v>9.00900900900901E-2</v>
+      </c>
+      <c r="K147" s="1">
+        <v>8.1081081081081099E-2</v>
+      </c>
+      <c r="L147" s="1">
+        <v>0.126126126126126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.124087591240876</v>
+      </c>
+      <c r="D148" s="1">
+        <v>8.7591240875912399E-2</v>
+      </c>
+      <c r="E148" s="1">
+        <v>8.7591240875912399E-2</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0.13138686131386901</v>
+      </c>
+      <c r="G148" s="1">
+        <v>5.8394160583941597E-2</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.19708029197080301</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0.13138686131386901</v>
+      </c>
+      <c r="J148" s="1">
+        <v>5.8394160583941597E-2</v>
+      </c>
+      <c r="K148" s="1">
+        <v>5.8394160583941597E-2</v>
+      </c>
+      <c r="L148" s="1">
+        <v>6.5693430656934296E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>10</v>
+      </c>
+      <c r="C149" s="1">
+        <v>7.18232044198895E-2</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.110497237569061</v>
+      </c>
+      <c r="E149" s="1">
+        <v>6.6298342541436503E-2</v>
+      </c>
+      <c r="F149" s="1">
+        <v>6.6298342541436503E-2</v>
+      </c>
+      <c r="G149" s="1">
+        <v>8.8397790055248601E-2</v>
+      </c>
+      <c r="H149" s="1">
+        <v>6.6298342541436503E-2</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0.187845303867403</v>
+      </c>
+      <c r="J149" s="1">
+        <v>4.4198895027624301E-2</v>
+      </c>
+      <c r="K149" s="1">
+        <v>5.5248618784530398E-2</v>
+      </c>
+      <c r="L149" s="1">
+        <v>0.243093922651934</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.157407407407407</v>
+      </c>
+      <c r="E150" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0.13888888888888901</v>
+      </c>
+      <c r="I150" s="1">
+        <v>7.4074074074074098E-2</v>
+      </c>
+      <c r="J150" s="1">
+        <v>6.4814814814814797E-2</v>
+      </c>
+      <c r="K150" s="1">
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="L150" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151" s="1">
+        <v>7.9365079365079402E-2</v>
+      </c>
+      <c r="D151" s="1">
+        <v>6.3492063492063502E-2</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0.103174603174603</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0.126984126984127</v>
+      </c>
+      <c r="G151" s="1">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="H151" s="1">
+        <v>6.3492063492063502E-2</v>
+      </c>
+      <c r="I151" s="1">
+        <v>4.7619047619047603E-2</v>
+      </c>
+      <c r="J151" s="1">
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="K151" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="L151" s="1">
+        <v>0.17460317460317501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>10</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.105691056910569</v>
+      </c>
+      <c r="D152" s="1">
+        <v>6.50406504065041E-2</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0.12195121951219499</v>
+      </c>
+      <c r="F152" s="1">
+        <v>8.9430894308943104E-2</v>
+      </c>
+      <c r="G152" s="1">
+        <v>8.9430894308943104E-2</v>
+      </c>
+      <c r="H152" s="1">
+        <v>6.50406504065041E-2</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0.12195121951219499</v>
+      </c>
+      <c r="J152" s="1">
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0.105691056910569</v>
+      </c>
+      <c r="L152" s="1">
+        <v>0.138211382113821</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0.107692307692308</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0.19230769230769201</v>
+      </c>
+      <c r="E153" s="1">
+        <v>5.3846153846153801E-2</v>
+      </c>
+      <c r="F153" s="1">
+        <v>9.2307692307692299E-2</v>
+      </c>
+      <c r="G153" s="1">
+        <v>4.6153846153846198E-2</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0.18461538461538499</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0.146153846153846</v>
+      </c>
+      <c r="J153" s="1">
+        <v>6.9230769230769207E-2</v>
+      </c>
+      <c r="K153" s="1">
+        <v>5.3846153846153801E-2</v>
+      </c>
+      <c r="L153" s="1">
+        <v>5.3846153846153801E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>10</v>
+      </c>
+      <c r="C154" s="1">
+        <v>6.7567567567567599E-2</v>
+      </c>
+      <c r="D154" s="1">
+        <v>7.4324324324324301E-2</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0.108108108108108</v>
+      </c>
+      <c r="F154" s="1">
+        <v>9.45945945945946E-2</v>
+      </c>
+      <c r="G154" s="1">
+        <v>8.1081081081081099E-2</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0.168918918918919</v>
+      </c>
+      <c r="I154" s="1">
+        <v>8.7837837837837801E-2</v>
+      </c>
+      <c r="J154" s="1">
+        <v>3.37837837837838E-2</v>
+      </c>
+      <c r="K154" s="1">
+        <v>6.7567567567567599E-2</v>
+      </c>
+      <c r="L154" s="1">
+        <v>0.21621621621621601</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1">
+        <v>4.5112781954887202E-2</v>
+      </c>
+      <c r="D155" s="1">
+        <v>6.01503759398496E-2</v>
+      </c>
+      <c r="E155" s="1">
+        <v>4.5112781954887202E-2</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0.29323308270676701</v>
+      </c>
+      <c r="G155" s="1">
+        <v>9.7744360902255606E-2</v>
+      </c>
+      <c r="H155" s="1">
+        <v>6.7669172932330796E-2</v>
+      </c>
+      <c r="I155" s="1">
+        <v>8.2706766917293201E-2</v>
+      </c>
+      <c r="J155" s="1">
+        <v>7.5187969924811998E-2</v>
+      </c>
+      <c r="K155" s="1">
+        <v>0.112781954887218</v>
+      </c>
+      <c r="L155" s="1">
+        <v>0.12030075187969901</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>8</v>
+      </c>
+      <c r="C156" s="1">
+        <v>4.6052631578947401E-2</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.17105263157894701</v>
+      </c>
+      <c r="E156" s="1">
+        <v>9.2105263157894704E-2</v>
+      </c>
+      <c r="F156" s="1">
+        <v>9.2105263157894704E-2</v>
+      </c>
+      <c r="G156" s="1">
+        <v>7.8947368421052599E-2</v>
+      </c>
+      <c r="H156" s="1">
+        <v>5.9210526315789498E-2</v>
+      </c>
+      <c r="I156" s="1">
+        <v>5.9210526315789498E-2</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0.20394736842105299</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="L156" s="1">
+        <v>7.2368421052631596E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>10</v>
+      </c>
+      <c r="C157" s="1">
+        <v>6.3380281690140802E-2</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0.11267605633802801</v>
+      </c>
+      <c r="E157" s="1">
+        <v>9.85915492957746E-2</v>
+      </c>
+      <c r="F157" s="1">
+        <v>8.0985915492957694E-2</v>
+      </c>
+      <c r="G157" s="1">
+        <v>4.5774647887323897E-2</v>
+      </c>
+      <c r="H157" s="1">
+        <v>9.1549295774647904E-2</v>
+      </c>
+      <c r="I157" s="1">
+        <v>7.0422535211267595E-2</v>
+      </c>
+      <c r="J157" s="1">
+        <v>4.92957746478873E-2</v>
+      </c>
+      <c r="K157" s="1">
+        <v>4.5774647887323897E-2</v>
+      </c>
+      <c r="L157" s="1">
+        <v>0.34154929577464799</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158" s="1">
+        <v>9.4674556213017694E-2</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.112426035502959</v>
+      </c>
+      <c r="E158" s="1">
+        <v>8.2840236686390498E-2</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.118343195266272</v>
+      </c>
+      <c r="G158" s="1">
+        <v>7.1005917159763302E-2</v>
+      </c>
+      <c r="H158" s="1">
+        <v>8.8757396449704096E-2</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0.224852071005917</v>
+      </c>
+      <c r="J158" s="1">
+        <v>8.8757396449704096E-2</v>
+      </c>
+      <c r="K158" s="1">
+        <v>4.7337278106508902E-2</v>
+      </c>
+      <c r="L158" s="1">
+        <v>7.1005917159763302E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D159" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0.118055555555556</v>
+      </c>
+      <c r="G159" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H159" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0.131944444444444</v>
+      </c>
+      <c r="J159" s="1">
+        <v>6.9444444444444406E-2</v>
+      </c>
+      <c r="K159" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="L159" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160" s="1">
+        <v>8.54700854700855E-2</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.11965811965812</v>
+      </c>
+      <c r="E160" s="1">
+        <v>8.54700854700855E-2</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0.128205128205128</v>
+      </c>
+      <c r="G160" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="I160" s="1">
+        <v>8.54700854700855E-2</v>
+      </c>
+      <c r="J160" s="1">
+        <v>6.8376068376068397E-2</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0.11965811965812</v>
+      </c>
+      <c r="L160" s="1">
+        <v>0.11965811965812</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161" s="1">
+        <v>8.1632653061224497E-2</v>
+      </c>
+      <c r="D161" s="1">
+        <v>9.1836734693877597E-2</v>
+      </c>
+      <c r="E161" s="1">
+        <v>5.10204081632653E-2</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0.280612244897959</v>
+      </c>
+      <c r="G161" s="1">
+        <v>9.1836734693877597E-2</v>
+      </c>
+      <c r="H161" s="1">
+        <v>7.6530612244898003E-2</v>
+      </c>
+      <c r="I161" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="J161" s="1">
+        <v>4.5918367346938799E-2</v>
+      </c>
+      <c r="K161" s="1">
+        <v>0.11224489795918401</v>
+      </c>
+      <c r="L161" s="1">
+        <v>9.6938775510204106E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162" s="1">
+        <v>6.9651741293532299E-2</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0.109452736318408</v>
+      </c>
+      <c r="E162" s="1">
+        <v>3.98009950248756E-2</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0.144278606965174</v>
+      </c>
+      <c r="G162" s="1">
+        <v>7.9601990049751201E-2</v>
+      </c>
+      <c r="H162" s="1">
+        <v>6.4676616915422896E-2</v>
+      </c>
+      <c r="I162" s="1">
+        <v>5.9701492537313397E-2</v>
+      </c>
+      <c r="J162" s="1">
+        <v>0.308457711442786</v>
+      </c>
+      <c r="K162" s="1">
+        <v>8.9552238805970102E-2</v>
+      </c>
+      <c r="L162" s="1">
+        <v>3.4825870646766198E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>7</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="D163" s="1">
+        <v>7.09219858156028E-2</v>
+      </c>
+      <c r="E163" s="1">
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="F163" s="1">
+        <v>4.9645390070922002E-2</v>
+      </c>
+      <c r="G163" s="1">
+        <v>9.2198581560283696E-2</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0.12765957446808501</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0.170212765957447</v>
+      </c>
+      <c r="J163" s="1">
+        <v>7.8014184397163094E-2</v>
+      </c>
+      <c r="K163" s="1">
+        <v>0.14184397163120599</v>
+      </c>
+      <c r="L163" s="1">
+        <v>0.14184397163120599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>6</v>
+      </c>
+      <c r="C164" s="1">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0.10980392156862701</v>
+      </c>
+      <c r="E164" s="1">
+        <v>8.6274509803921595E-2</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0.12549019607843101</v>
+      </c>
+      <c r="G164" s="1">
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="I164" s="1">
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="J164" s="1">
+        <v>6.2745098039215699E-2</v>
+      </c>
+      <c r="K164" s="1">
+        <v>0.105882352941176</v>
+      </c>
+      <c r="L164" s="1">
+        <v>0.15686274509803899</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0.112903225806452</v>
+      </c>
+      <c r="D165" s="1">
+        <v>7.25806451612903E-2</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0.15322580645161299</v>
+      </c>
+      <c r="F165" s="1">
+        <v>7.25806451612903E-2</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0.120967741935484</v>
+      </c>
+      <c r="H165" s="1">
+        <v>6.4516129032258104E-2</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="J165" s="1">
+        <v>6.4516129032258104E-2</v>
+      </c>
+      <c r="K165" s="1">
+        <v>8.8709677419354802E-2</v>
+      </c>
+      <c r="L165" s="1">
+        <v>8.8709677419354802E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>10</v>
+      </c>
+      <c r="C166" s="1">
+        <v>6.7901234567901203E-2</v>
+      </c>
+      <c r="D166" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0.13580246913580199</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0.12345679012345701</v>
+      </c>
+      <c r="G166" s="1">
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="H166" s="1">
+        <v>9.2592592592592601E-2</v>
+      </c>
+      <c r="I166" s="1">
+        <v>9.8765432098765399E-2</v>
+      </c>
+      <c r="J166" s="1">
+        <v>7.4074074074074098E-2</v>
+      </c>
+      <c r="K166" s="1">
+        <v>9.8765432098765399E-2</v>
+      </c>
+      <c r="L166" s="1">
+        <v>0.16049382716049401</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167" s="1">
+        <v>6.6225165562913899E-2</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0.13245033112582799</v>
+      </c>
+      <c r="E167" s="1">
+        <v>8.6092715231788103E-2</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0.165562913907285</v>
+      </c>
+      <c r="G167" s="1">
+        <v>3.9735099337748297E-2</v>
+      </c>
+      <c r="H167" s="1">
+        <v>7.9470198675496706E-2</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0.112582781456954</v>
+      </c>
+      <c r="J167" s="1">
+        <v>0.17880794701986799</v>
+      </c>
+      <c r="K167" s="1">
+        <v>7.2847682119205295E-2</v>
+      </c>
+      <c r="L167" s="1">
+        <v>6.6225165562913899E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+      <c r="C168" s="1">
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="D168" s="1">
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="E168" s="1">
+        <v>6.1643835616438401E-2</v>
+      </c>
+      <c r="F168" s="1">
+        <v>4.7945205479452101E-2</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0.116438356164384</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0.102739726027397</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0.10958904109589</v>
+      </c>
+      <c r="J168" s="1">
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="K168" s="1">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="L168" s="1">
+        <v>0.27397260273972601</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>10</v>
+      </c>
+      <c r="C169" s="1">
+        <v>3.8461538461538498E-2</v>
+      </c>
+      <c r="D169" s="1">
+        <v>4.6153846153846198E-2</v>
+      </c>
+      <c r="E169" s="1">
+        <v>6.9230769230769207E-2</v>
+      </c>
+      <c r="F169" s="1">
+        <v>8.4615384615384606E-2</v>
+      </c>
+      <c r="G169" s="1">
+        <v>3.8461538461538498E-2</v>
+      </c>
+      <c r="H169" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="I169" s="1">
+        <v>8.4615384615384606E-2</v>
+      </c>
+      <c r="J169" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K169" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L169" s="1">
+        <v>0.36153846153846197</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170" s="1">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E170" s="1">
+        <v>9.1666666666666702E-2</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0.108333333333333</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="I170" s="1">
+        <v>9.1666666666666702E-2</v>
+      </c>
+      <c r="J170" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K170" s="1">
+        <v>0.116666666666667</v>
+      </c>
+      <c r="L170" s="1">
+        <v>5.83333333333333E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>10</v>
+      </c>
+      <c r="C171" s="1">
+        <v>5.6737588652482303E-2</v>
+      </c>
+      <c r="D171" s="1">
+        <v>7.09219858156028E-2</v>
+      </c>
+      <c r="E171" s="1">
+        <v>5.6737588652482303E-2</v>
+      </c>
+      <c r="F171" s="1">
+        <v>7.8014184397163094E-2</v>
+      </c>
+      <c r="G171" s="1">
+        <v>7.09219858156028E-2</v>
+      </c>
+      <c r="H171" s="1">
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="I171" s="1">
+        <v>4.9645390070922002E-2</v>
+      </c>
+      <c r="J171" s="1">
+        <v>9.2198581560283696E-2</v>
+      </c>
+      <c r="K171" s="1">
+        <v>4.9645390070922002E-2</v>
+      </c>
+      <c r="L171" s="1">
+        <v>0.390070921985816</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>9</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0.13571428571428601</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E172" s="1">
+        <v>9.2857142857142902E-2</v>
+      </c>
+      <c r="F172" s="1">
+        <v>6.4285714285714293E-2</v>
+      </c>
+      <c r="G172" s="1">
+        <v>7.8571428571428598E-2</v>
+      </c>
+      <c r="H172" s="1">
+        <v>6.4285714285714293E-2</v>
+      </c>
+      <c r="I172" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="J172" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K172" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L172" s="1">
+        <v>0.14285714285714299</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>10</v>
+      </c>
+      <c r="C173" s="1">
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="D173" s="1">
+        <v>5.31914893617021E-2</v>
+      </c>
+      <c r="E173" s="1">
+        <v>9.5744680851063801E-2</v>
+      </c>
+      <c r="F173" s="1">
+        <v>7.4468085106383003E-2</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0.10638297872340401</v>
+      </c>
+      <c r="H173" s="1">
+        <v>9.5744680851063801E-2</v>
+      </c>
+      <c r="I173" s="1">
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="J173" s="1">
+        <v>0.12765957446808501</v>
+      </c>
+      <c r="K173" s="1">
+        <v>0.117021276595745</v>
+      </c>
+      <c r="L173" s="1">
+        <v>0.159574468085106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174" s="1">
+        <v>5.5299539170506902E-2</v>
+      </c>
+      <c r="D174" s="1">
+        <v>5.5299539170506902E-2</v>
+      </c>
+      <c r="E174" s="1">
+        <v>5.5299539170506902E-2</v>
+      </c>
+      <c r="F174" s="1">
+        <v>4.6082949308755797E-2</v>
+      </c>
+      <c r="G174" s="1">
+        <v>6.4516129032258104E-2</v>
+      </c>
+      <c r="H174" s="1">
+        <v>6.9124423963133605E-2</v>
+      </c>
+      <c r="I174" s="1">
+        <v>2.76497695852535E-2</v>
+      </c>
+      <c r="J174" s="1">
+        <v>4.1474654377880199E-2</v>
+      </c>
+      <c r="K174" s="1">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="L174" s="1">
+        <v>0.488479262672811</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175" s="1">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="D175" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0.180555555555556</v>
+      </c>
+      <c r="G175" s="1">
+        <v>9.0277777777777804E-2</v>
+      </c>
+      <c r="H175" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I175" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="J175" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="K175" s="1">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="L175" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0.112903225806452</v>
+      </c>
+      <c r="D176" s="1">
+        <v>8.0645161290322606E-2</v>
+      </c>
+      <c r="E176" s="1">
+        <v>8.8709677419354802E-2</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="G176" s="1">
+        <v>5.6451612903225798E-2</v>
+      </c>
+      <c r="H176" s="1">
+        <v>7.25806451612903E-2</v>
+      </c>
+      <c r="I176" s="1">
+        <v>0.112903225806452</v>
+      </c>
+      <c r="J176" s="1">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="K176" s="1">
+        <v>7.25806451612903E-2</v>
+      </c>
+      <c r="L176" s="1">
+        <v>8.0645161290322606E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>6</v>
+      </c>
+      <c r="C177" s="1">
+        <v>8.3969465648855005E-2</v>
+      </c>
+      <c r="D177" s="1">
+        <v>8.3969465648855005E-2</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0.106870229007634</v>
+      </c>
+      <c r="F177" s="1">
+        <v>9.1603053435114504E-2</v>
+      </c>
+      <c r="G177" s="1">
+        <v>0.106870229007634</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0.13740458015267201</v>
+      </c>
+      <c r="I177" s="1">
+        <v>8.3969465648855005E-2</v>
+      </c>
+      <c r="J177" s="1">
+        <v>8.3969465648855005E-2</v>
+      </c>
+      <c r="K177" s="1">
+        <v>0.106870229007634</v>
+      </c>
+      <c r="L177" s="1">
+        <v>0.114503816793893</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:L2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:L24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:L177">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>